--- a/app/assets/downloads/Barclays-keying-sheet-june2023.xlsx
+++ b/app/assets/downloads/Barclays-keying-sheet-june2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Documents/Prototypes/ukef/prototypekit-stb/app/assets/downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Documents/Prototypes/ukef/prototypekit-stb-tfm/app/assets/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8296B3-6D89-924A-88BD-3661270914A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E698975-3948-194A-9DE0-2F014F8C6434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="3980" windowWidth="36200" windowHeight="14540" xr2:uid="{5B049927-B1A7-7345-873F-20EB802410C9}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -543,22 +543,22 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -577,16 +577,13 @@
       <c r="E3" s="4">
         <v>2500</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4">
+      <c r="F3" s="4">
         <v>1140</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4">
+      <c r="H3" s="4">
         <v>300000</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4">
+      <c r="J3" s="4">
         <v>6230</v>
       </c>
     </row>
@@ -606,16 +603,13 @@
       <c r="E4" s="4">
         <v>1000</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4">
+      <c r="F4" s="4">
         <v>400</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4">
+      <c r="H4" s="4">
         <v>140000</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4">
+      <c r="J4" s="4">
         <v>2312</v>
       </c>
     </row>
@@ -635,16 +629,13 @@
       <c r="E5" s="4">
         <v>1250</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4">
+      <c r="F5" s="4">
         <v>500</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4">
+      <c r="H5" s="4">
         <v>80000</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="4">
+      <c r="J5" s="4">
         <v>1123</v>
       </c>
     </row>
@@ -664,16 +655,13 @@
       <c r="E6" s="4">
         <v>1500</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4">
+      <c r="F6" s="4">
         <v>900</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4">
+      <c r="H6" s="4">
         <v>220000</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4">
+      <c r="J6" s="4">
         <v>3256</v>
       </c>
     </row>
